--- a/APS '19 Beta Test.xlsx
+++ b/APS '19 Beta Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\Fantasy-Physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8619ABE3-4C00-47E8-B87F-45C240940070}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E8175-8079-46F3-BC64-2AABA4DDA7FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{DB7E7DD6-1A8F-4A6A-A856-ADDDE773E381}"/>
   </bookViews>
@@ -313,8 +313,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -342,8 +350,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6470794-0772-42C7-9413-27401514323D}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1116,80 +1125,80 @@
         <v>57.896000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>5.1669999999999998</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>6.3330000000000002</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>3.3330000000000002</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>8</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>7</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>7</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>7</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>5.3330000000000002</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>58.165999999999997</v>
       </c>
     </row>
@@ -1503,5 +1512,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>